--- a/Acadamic Log Book EVS-18-19.xlsx
+++ b/Acadamic Log Book EVS-18-19.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="116">
   <si>
     <t>S.NO</t>
   </si>
@@ -113,12 +113,6 @@
     <t>Acadamic Year 2018 - 2019</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
     <t>R.NO</t>
   </si>
   <si>
@@ -375,6 +369,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -721,33 +718,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,26 +727,14 @@
     <xf numFmtId="17" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -796,17 +754,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -832,19 +817,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="9">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -900,30 +897,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1272,42 +1245,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="45" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
@@ -1320,42 +1293,42 @@
       <c r="AH1" s="22"/>
     </row>
     <row r="2" spans="1:66" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="45" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
       <c r="AA2" s="22"/>
@@ -1368,42 +1341,42 @@
       <c r="AH2" s="22"/>
     </row>
     <row r="3" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="A3" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="45" t="s">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="46"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
       <c r="Y3" s="23"/>
       <c r="Z3" s="23"/>
       <c r="AA3" s="23"/>
@@ -1416,56 +1389,56 @@
       <c r="AH3" s="23"/>
     </row>
     <row r="4" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="42">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="33">
         <v>43070</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="44"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="35"/>
       <c r="AU4" s="24"/>
       <c r="AV4" s="24"/>
       <c r="AW4" s="24"/>
@@ -1488,13 +1461,13 @@
       <c r="BN4" s="24"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1574,9 +1547,9 @@
       <c r="BN5" s="31"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1654,11 +1627,11 @@
       <c r="BN6" s="31"/>
     </row>
     <row r="7" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="56"/>
+        <v>109</v>
+      </c>
+      <c r="C7" s="43"/>
       <c r="D7" s="10" t="s">
         <v>2</v>
       </c>
@@ -1740,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="12" t="s">
@@ -1824,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="27" t="s">
@@ -1908,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="27" t="s">
@@ -1992,10 +1965,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="27" t="s">
@@ -2076,10 +2049,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="27" t="s">
@@ -2160,10 +2133,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="12" t="s">
@@ -2244,10 +2217,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="12" t="s">
@@ -2328,10 +2301,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="12" t="s">
@@ -2412,10 +2385,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="12" t="s">
@@ -2496,10 +2469,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="12" t="s">
@@ -2580,10 +2553,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="12" t="s">
@@ -2664,10 +2637,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="12" t="s">
@@ -2748,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="12" t="s">
@@ -2832,10 +2805,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="27" t="s">
@@ -2916,10 +2889,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="27" t="s">
@@ -3000,10 +2973,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="12" t="s">
@@ -3084,10 +3057,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="27" t="s">
@@ -3168,10 +3141,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="12" t="s">
@@ -3252,10 +3225,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="12" t="s">
@@ -3336,10 +3309,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="12" t="s">
@@ -3420,10 +3393,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="12" t="s">
@@ -3504,10 +3477,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="12" t="s">
@@ -3588,10 +3561,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="12" t="s">
@@ -3672,10 +3645,10 @@
         <v>24</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="12" t="s">
@@ -3756,10 +3729,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="27" t="s">
@@ -3840,10 +3813,10 @@
         <v>26</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="12" t="s">
@@ -3924,10 +3897,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="12" t="s">
@@ -4008,10 +3981,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="27" t="s">
@@ -4092,10 +4065,10 @@
         <v>29</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="12" t="s">
@@ -4176,10 +4149,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="12" t="s">
@@ -4260,10 +4233,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="12" t="s">
@@ -4344,10 +4317,10 @@
         <v>32</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="12" t="s">
@@ -4428,10 +4401,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="27" t="s">
@@ -4512,10 +4485,10 @@
         <v>34</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="27" t="s">
@@ -4596,10 +4569,10 @@
         <v>35</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="12" t="s">
@@ -4680,10 +4653,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="27" t="s">
@@ -4764,10 +4737,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="27" t="s">
@@ -4848,10 +4821,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="12" t="s">
@@ -4932,10 +4905,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="12" t="s">
@@ -5012,10 +4985,10 @@
       <c r="BN46" s="32"/>
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="40"/>
       <c r="D47" s="13"/>
       <c r="E47" s="12">
         <f t="shared" ref="E47:AS47" si="0">COUNTIF(E8:E46,"A")</f>
@@ -5267,10 +5240,10 @@
       </c>
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="13"/>
       <c r="E48" s="12">
         <f>(39-E47)</f>
@@ -5523,12 +5496,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Y4:AT4"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="E4:X4"/>
@@ -5538,17 +5510,18 @@
     <mergeCell ref="O2:X2"/>
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="O1:X1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="Y4:AT4"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:BN46">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"OD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5562,7 +5535,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5577,90 +5550,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="19">
         <v>25</v>
       </c>
@@ -5670,254 +5639,282 @@
       <c r="E6" s="19">
         <v>100</v>
       </c>
-      <c r="F6" s="3">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3">
-        <v>50</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="28">
         <v>10</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="28">
+        <v>41</v>
+      </c>
       <c r="E7" s="28">
         <f>SUM(C7:D7)</f>
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="28">
         <v>14</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="28">
+        <v>42</v>
+      </c>
       <c r="E8" s="28">
         <f t="shared" ref="E8:E45" si="0">SUM(C8:D8)</f>
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="C9" s="28">
+        <v>25</v>
+      </c>
+      <c r="D9" s="28">
+        <v>55</v>
+      </c>
       <c r="E9" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="28">
         <v>24</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="28">
+        <v>58</v>
+      </c>
       <c r="E10" s="28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="28">
         <v>21</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="28">
+        <v>54</v>
+      </c>
       <c r="E11" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="28">
         <v>17</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="28">
+        <v>53</v>
+      </c>
       <c r="E12" s="28">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="28">
         <v>15</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="28">
+        <v>37</v>
+      </c>
       <c r="E13" s="28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="28">
         <v>14</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28">
+        <v>27</v>
+      </c>
       <c r="E14" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="28">
         <v>24</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="28">
+        <v>64</v>
+      </c>
       <c r="E15" s="28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="28">
         <v>8</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="28">
+        <v>49</v>
+      </c>
       <c r="E16" s="28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="28">
+        <v>8</v>
+      </c>
       <c r="E17" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="28">
         <v>11</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="28">
+        <v>38</v>
+      </c>
       <c r="E18" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="28">
         <v>22</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="28">
+        <v>56</v>
+      </c>
       <c r="E19" s="28">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="28">
         <v>3</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="E20" s="28">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5927,47 +5924,57 @@
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="28">
+        <v>34</v>
+      </c>
       <c r="E21" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="28">
         <v>19</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="28">
+        <v>53</v>
+      </c>
       <c r="E22" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+        <v>63</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="E23" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5977,137 +5984,157 @@
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="28">
         <v>9</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="28">
+        <v>32</v>
+      </c>
       <c r="E24" s="28">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="28">
         <v>14</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="28">
+        <v>46</v>
+      </c>
       <c r="E25" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="28">
+        <v>46</v>
+      </c>
       <c r="E26" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="28">
         <v>21</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="28">
+        <v>60</v>
+      </c>
       <c r="E27" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28" s="28">
         <v>18</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="28">
+        <v>42</v>
+      </c>
       <c r="E28" s="28">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="28">
         <v>19</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="28">
+        <v>51</v>
+      </c>
       <c r="E29" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="C30" s="28">
+        <v>15</v>
+      </c>
+      <c r="D30" s="28">
+        <v>58</v>
+      </c>
       <c r="E30" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="28">
         <v>17</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="E31" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6117,105 +6144,117 @@
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="28">
         <v>18</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="28">
+        <v>60</v>
+      </c>
       <c r="E32" s="28">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="28">
         <v>21</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="28">
+        <v>59</v>
+      </c>
       <c r="E33" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="28">
         <v>12</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="28">
+        <v>38</v>
+      </c>
       <c r="E34" s="28">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="28">
         <v>14</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="28">
+        <v>33</v>
+      </c>
       <c r="E35" s="28">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="28">
         <v>19</v>
       </c>
-      <c r="D36" s="28"/>
+      <c r="D36" s="28">
+        <v>65</v>
+      </c>
       <c r="E36" s="28">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="28">
         <v>25</v>
       </c>
-      <c r="D37" s="28"/>
+      <c r="D37" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="E37" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6225,31 +6264,37 @@
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" s="28">
         <v>13</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="28">
+        <v>37</v>
+      </c>
       <c r="E38" s="28">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+        <v>95</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="E39" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6259,113 +6304,129 @@
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+        <v>97</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="28">
+        <v>35</v>
+      </c>
       <c r="E40" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="28">
         <v>21</v>
       </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="28">
+        <v>54</v>
+      </c>
       <c r="E41" s="28">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" s="28">
+        <v>6</v>
+      </c>
       <c r="E42" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43" s="28">
         <v>11</v>
       </c>
-      <c r="D43" s="28"/>
+      <c r="D43" s="28">
+        <v>47</v>
+      </c>
       <c r="E43" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C44" s="28">
         <v>11</v>
       </c>
-      <c r="D44" s="28"/>
+      <c r="D44" s="28">
+        <v>25</v>
+      </c>
       <c r="E44" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" s="28">
         <v>11</v>
       </c>
-      <c r="D45" s="28"/>
+      <c r="D45" s="28">
+        <v>46</v>
+      </c>
       <c r="E45" s="28">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="53"/>
+      <c r="B46" s="40"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="18"/>
@@ -6373,10 +6434,10 @@
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="51"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="18"/>
@@ -6384,10 +6445,10 @@
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="51"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="18"/>
@@ -6395,10 +6456,10 @@
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="50" t="s">
+      <c r="A49" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="51"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="16"/>
       <c r="D49" s="15"/>
       <c r="E49" s="18"/>
@@ -6407,6 +6468,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -6416,27 +6484,25 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C45">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D45">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E45">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:E45">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"AB"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Acadamic Log Book EVS-18-19.xlsx
+++ b/Acadamic Log Book EVS-18-19.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="14535" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="116">
   <si>
     <t>S.NO</t>
   </si>
@@ -834,7 +834,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -842,36 +842,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5518,10 +5488,10 @@
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:BN46">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"OD"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5534,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5733,11 +5703,11 @@
         <v>21</v>
       </c>
       <c r="D11" s="28">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E11" s="28">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -5873,11 +5843,11 @@
         <v>11</v>
       </c>
       <c r="D18" s="28">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -5893,11 +5863,11 @@
         <v>22</v>
       </c>
       <c r="D19" s="28">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
@@ -6029,15 +5999,15 @@
       <c r="B26" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>115</v>
+      <c r="C26" s="28">
+        <v>8</v>
       </c>
       <c r="D26" s="28">
         <v>46</v>
       </c>
       <c r="E26" s="28">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
@@ -6486,17 +6456,17 @@
     <mergeCell ref="E3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C45">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>12.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D45">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>37.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E45">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Acadamic Log Book EVS-18-19.xlsx
+++ b/Acadamic Log Book EVS-18-19.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repo's\GE8291-Environmental-Science-and-Engineering\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="14535" windowHeight="7695" activeTab="1"/>
   </bookViews>
@@ -19,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Attendance!$BA$1:$BA$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Internal Mark 1'!$D$1:$D$48</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="129">
   <si>
     <t>S.NO</t>
   </si>
@@ -416,8 +411,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,7 +658,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -762,6 +757,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,14 +809,26 @@
     <xf numFmtId="17" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -799,43 +849,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,39 +874,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1014,7 +1015,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,10 +1047,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1081,7 +1081,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1257,63 +1256,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3:X3"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
     <col min="5" max="66" width="4.140625" style="2" customWidth="1"/>
     <col min="67" max="98" width="4.140625" style="1" customWidth="1"/>
     <col min="99" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:66" ht="18.75">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="48" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="50" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="52"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="55"/>
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
       <c r="AA1" s="20"/>
@@ -1325,43 +1324,43 @@
       <c r="AG1" s="20"/>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:66" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:66" ht="19.5">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="48" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="49" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
@@ -1373,43 +1372,43 @@
       <c r="AG2" s="20"/>
       <c r="AH2" s="20"/>
     </row>
-    <row r="3" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:66" ht="18.75">
+      <c r="A3" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="48" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="49" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21"/>
@@ -1421,57 +1420,61 @@
       <c r="AG3" s="21"/>
       <c r="AH3" s="21"/>
     </row>
-    <row r="4" spans="1:66" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:66" ht="18.75">
+      <c r="A4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="33">
-        <v>43070</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="73">
+        <v>43435</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73">
+        <v>43466</v>
+      </c>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="48">
+        <v>43497</v>
+      </c>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="50"/>
       <c r="AU4" s="22"/>
       <c r="AV4" s="22"/>
       <c r="AW4" s="22"/>
@@ -1493,14 +1496,14 @@
       <c r="BM4" s="22"/>
       <c r="BN4" s="22"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:66">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="60" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1521,42 +1524,114 @@
       <c r="I5" s="26">
         <v>12</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="29"/>
+      <c r="J5" s="29">
+        <v>12</v>
+      </c>
+      <c r="K5" s="29">
+        <v>12</v>
+      </c>
+      <c r="L5" s="29">
+        <v>1</v>
+      </c>
+      <c r="M5" s="29">
+        <v>1</v>
+      </c>
+      <c r="N5" s="29">
+        <v>1</v>
+      </c>
+      <c r="O5" s="29">
+        <v>1</v>
+      </c>
+      <c r="P5" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>1</v>
+      </c>
+      <c r="R5" s="29">
+        <v>1</v>
+      </c>
+      <c r="S5" s="29">
+        <v>1</v>
+      </c>
+      <c r="T5" s="29">
+        <v>1</v>
+      </c>
+      <c r="U5" s="29">
+        <v>1</v>
+      </c>
+      <c r="V5" s="29">
+        <v>1</v>
+      </c>
+      <c r="W5" s="29">
+        <v>1</v>
+      </c>
+      <c r="X5" s="29">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="29">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="29">
+        <v>2</v>
+      </c>
       <c r="AT5" s="29"/>
       <c r="AU5" s="29"/>
       <c r="AV5" s="29"/>
@@ -1579,10 +1654,10 @@
       <c r="BM5" s="29"/>
       <c r="BN5" s="29"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="42"/>
+    <row r="6" spans="1:66">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
@@ -1601,43 +1676,117 @@
       <c r="I6" s="26">
         <v>21</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="29"/>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29"/>
-      <c r="AQ6" s="29"/>
-      <c r="AR6" s="29"/>
-      <c r="AS6" s="29"/>
-      <c r="AT6" s="29"/>
+      <c r="J6" s="29">
+        <v>26</v>
+      </c>
+      <c r="K6" s="29">
+        <v>27</v>
+      </c>
+      <c r="L6" s="72">
+        <v>3</v>
+      </c>
+      <c r="M6" s="72">
+        <v>4</v>
+      </c>
+      <c r="N6" s="72">
+        <v>5</v>
+      </c>
+      <c r="O6" s="29">
+        <v>5</v>
+      </c>
+      <c r="P6" s="29">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>5</v>
+      </c>
+      <c r="R6" s="72">
+        <v>7</v>
+      </c>
+      <c r="S6" s="72">
+        <v>9</v>
+      </c>
+      <c r="T6" s="29">
+        <v>11</v>
+      </c>
+      <c r="U6" s="29">
+        <v>12</v>
+      </c>
+      <c r="V6" s="29">
+        <v>18</v>
+      </c>
+      <c r="W6" s="29">
+        <v>21</v>
+      </c>
+      <c r="X6" s="29">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="72">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="72">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="72">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="29">
+        <v>6</v>
+      </c>
+      <c r="AE6" s="29">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="29">
+        <v>7</v>
+      </c>
+      <c r="AG6" s="72">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="29">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="29">
+        <v>11</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>11</v>
+      </c>
+      <c r="AK6" s="29">
+        <v>13</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>13</v>
+      </c>
+      <c r="AM6" s="29">
+        <v>13</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>16</v>
+      </c>
+      <c r="AO6" s="29">
+        <v>16</v>
+      </c>
+      <c r="AP6" s="29">
+        <v>18</v>
+      </c>
+      <c r="AQ6" s="29">
+        <v>18</v>
+      </c>
+      <c r="AR6" s="29">
+        <v>19</v>
+      </c>
+      <c r="AS6" s="29">
+        <v>20</v>
+      </c>
+      <c r="AT6" s="29">
+        <v>20</v>
+      </c>
       <c r="AU6" s="29"/>
       <c r="AV6" s="29"/>
       <c r="AW6" s="29"/>
@@ -1659,12 +1808,12 @@
       <c r="BM6" s="29"/>
       <c r="BN6" s="29"/>
     </row>
-    <row r="7" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+    <row r="7" spans="1:66" ht="15" customHeight="1">
+      <c r="A7" s="39"/>
       <c r="B7" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1683,43 +1832,117 @@
       <c r="I7" s="26">
         <v>3</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
-      <c r="AG7" s="29"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29"/>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="29"/>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29"/>
-      <c r="AQ7" s="29"/>
-      <c r="AR7" s="29"/>
-      <c r="AS7" s="29"/>
-      <c r="AT7" s="29"/>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="29">
+        <v>2</v>
+      </c>
+      <c r="L7" s="29">
+        <v>7</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1</v>
+      </c>
+      <c r="N7" s="29">
+        <v>1</v>
+      </c>
+      <c r="O7" s="29">
+        <v>2</v>
+      </c>
+      <c r="P7" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>4</v>
+      </c>
+      <c r="R7" s="29">
+        <v>4</v>
+      </c>
+      <c r="S7" s="29">
+        <v>3</v>
+      </c>
+      <c r="T7" s="29">
+        <v>1</v>
+      </c>
+      <c r="U7" s="29">
+        <v>2</v>
+      </c>
+      <c r="V7" s="29">
+        <v>4</v>
+      </c>
+      <c r="W7" s="29">
+        <v>3</v>
+      </c>
+      <c r="X7" s="29">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="29">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="29">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="29">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="29">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>8</v>
+      </c>
+      <c r="AK7" s="29">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="29">
+        <v>4</v>
+      </c>
+      <c r="AM7" s="29">
+        <v>7</v>
+      </c>
+      <c r="AN7" s="29">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="29">
+        <v>4</v>
+      </c>
+      <c r="AP7" s="29">
+        <v>7</v>
+      </c>
+      <c r="AQ7" s="29">
+        <v>8</v>
+      </c>
+      <c r="AR7" s="29">
+        <v>4</v>
+      </c>
+      <c r="AS7" s="29">
+        <v>3</v>
+      </c>
+      <c r="AT7" s="29">
+        <v>4</v>
+      </c>
       <c r="AU7" s="29"/>
       <c r="AV7" s="29"/>
       <c r="AW7" s="29"/>
@@ -1741,7 +1964,7 @@
       <c r="BM7" s="29"/>
       <c r="BN7" s="29"/>
     </row>
-    <row r="8" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" ht="15" customHeight="1">
       <c r="A8" s="25">
         <v>1</v>
       </c>
@@ -1767,43 +1990,117 @@
       <c r="I8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AQ8" s="30"/>
-      <c r="AR8" s="30"/>
-      <c r="AS8" s="30"/>
-      <c r="AT8" s="30"/>
+      <c r="J8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR8" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS8" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT8" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU8" s="30"/>
       <c r="AV8" s="30"/>
       <c r="AW8" s="30"/>
@@ -1825,7 +2122,7 @@
       <c r="BM8" s="30"/>
       <c r="BN8" s="30"/>
     </row>
-    <row r="9" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" ht="15" customHeight="1">
       <c r="A9" s="25">
         <v>2</v>
       </c>
@@ -1851,43 +2148,117 @@
       <c r="I9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
+      <c r="J9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL9" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS9" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT9" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU9" s="30"/>
       <c r="AV9" s="30"/>
       <c r="AW9" s="30"/>
@@ -1909,7 +2280,7 @@
       <c r="BM9" s="30"/>
       <c r="BN9" s="30"/>
     </row>
-    <row r="10" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" ht="15" customHeight="1">
       <c r="A10" s="25">
         <v>3</v>
       </c>
@@ -1935,43 +2306,117 @@
       <c r="I10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="30"/>
-      <c r="AG10" s="30"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="30"/>
-      <c r="AL10" s="30"/>
-      <c r="AM10" s="30"/>
-      <c r="AN10" s="30"/>
-      <c r="AO10" s="30"/>
-      <c r="AP10" s="30"/>
-      <c r="AQ10" s="30"/>
-      <c r="AR10" s="30"/>
-      <c r="AS10" s="30"/>
-      <c r="AT10" s="30"/>
+      <c r="J10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO10" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT10" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU10" s="30"/>
       <c r="AV10" s="30"/>
       <c r="AW10" s="30"/>
@@ -1993,7 +2438,7 @@
       <c r="BM10" s="30"/>
       <c r="BN10" s="30"/>
     </row>
-    <row r="11" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" ht="15" customHeight="1">
       <c r="A11" s="25">
         <v>4</v>
       </c>
@@ -2019,43 +2464,117 @@
       <c r="I11" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="30"/>
-      <c r="AT11" s="30"/>
+      <c r="J11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT11" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU11" s="30"/>
       <c r="AV11" s="30"/>
       <c r="AW11" s="30"/>
@@ -2077,7 +2596,7 @@
       <c r="BM11" s="30"/>
       <c r="BN11" s="30"/>
     </row>
-    <row r="12" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" ht="15" customHeight="1">
       <c r="A12" s="25">
         <v>5</v>
       </c>
@@ -2103,43 +2622,117 @@
       <c r="I12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="30"/>
-      <c r="AG12" s="30"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="30"/>
-      <c r="AL12" s="30"/>
-      <c r="AM12" s="30"/>
-      <c r="AN12" s="30"/>
-      <c r="AO12" s="30"/>
-      <c r="AP12" s="30"/>
-      <c r="AQ12" s="30"/>
-      <c r="AR12" s="30"/>
-      <c r="AS12" s="30"/>
-      <c r="AT12" s="30"/>
+      <c r="J12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT12" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU12" s="30"/>
       <c r="AV12" s="30"/>
       <c r="AW12" s="30"/>
@@ -2161,7 +2754,7 @@
       <c r="BM12" s="30"/>
       <c r="BN12" s="30"/>
     </row>
-    <row r="13" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" ht="15" customHeight="1">
       <c r="A13" s="25">
         <v>6</v>
       </c>
@@ -2187,43 +2780,117 @@
       <c r="I13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
+      <c r="J13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS13" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT13" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU13" s="29"/>
       <c r="AV13" s="29"/>
       <c r="AW13" s="29"/>
@@ -2245,7 +2912,7 @@
       <c r="BM13" s="30"/>
       <c r="BN13" s="30"/>
     </row>
-    <row r="14" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" ht="15" customHeight="1">
       <c r="A14" s="25">
         <v>7</v>
       </c>
@@ -2271,43 +2938,117 @@
       <c r="I14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="30"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="30"/>
-      <c r="AO14" s="30"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
+      <c r="J14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ14" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT14" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU14" s="30"/>
       <c r="AV14" s="30"/>
       <c r="AW14" s="30"/>
@@ -2329,7 +3070,7 @@
       <c r="BM14" s="30"/>
       <c r="BN14" s="30"/>
     </row>
-    <row r="15" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" ht="15" customHeight="1">
       <c r="A15" s="25">
         <v>8</v>
       </c>
@@ -2355,43 +3096,117 @@
       <c r="I15" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="29"/>
-      <c r="AL15" s="29"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="30"/>
-      <c r="AQ15" s="29"/>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
+      <c r="J15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT15" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU15" s="30"/>
       <c r="AV15" s="30"/>
       <c r="AW15" s="30"/>
@@ -2413,7 +3228,7 @@
       <c r="BM15" s="30"/>
       <c r="BN15" s="30"/>
     </row>
-    <row r="16" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" ht="15" customHeight="1">
       <c r="A16" s="25">
         <v>9</v>
       </c>
@@ -2439,43 +3254,117 @@
       <c r="I16" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="30"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="30"/>
-      <c r="AT16" s="30"/>
+      <c r="J16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS16" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT16" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU16" s="30"/>
       <c r="AV16" s="30"/>
       <c r="AW16" s="30"/>
@@ -2497,7 +3386,7 @@
       <c r="BM16" s="30"/>
       <c r="BN16" s="30"/>
     </row>
-    <row r="17" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" ht="15" customHeight="1">
       <c r="A17" s="25">
         <v>10</v>
       </c>
@@ -2523,43 +3412,117 @@
       <c r="I17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="30"/>
-      <c r="AG17" s="30"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="30"/>
-      <c r="AL17" s="30"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="30"/>
-      <c r="AO17" s="30"/>
-      <c r="AP17" s="30"/>
-      <c r="AQ17" s="30"/>
-      <c r="AR17" s="30"/>
-      <c r="AS17" s="30"/>
-      <c r="AT17" s="30"/>
+      <c r="J17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT17" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU17" s="30"/>
       <c r="AV17" s="30"/>
       <c r="AW17" s="30"/>
@@ -2581,7 +3544,7 @@
       <c r="BM17" s="30"/>
       <c r="BN17" s="30"/>
     </row>
-    <row r="18" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" ht="15" customHeight="1">
       <c r="A18" s="25">
         <v>11</v>
       </c>
@@ -2607,43 +3570,117 @@
       <c r="I18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30"/>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="30"/>
-      <c r="AS18" s="30"/>
-      <c r="AT18" s="30"/>
+      <c r="J18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ18" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS18" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT18" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU18" s="30"/>
       <c r="AV18" s="30"/>
       <c r="AW18" s="30"/>
@@ -2665,7 +3702,7 @@
       <c r="BM18" s="30"/>
       <c r="BN18" s="30"/>
     </row>
-    <row r="19" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" ht="15" customHeight="1">
       <c r="A19" s="25">
         <v>12</v>
       </c>
@@ -2691,43 +3728,117 @@
       <c r="I19" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
+      <c r="J19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP19" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT19" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU19" s="30"/>
       <c r="AV19" s="30"/>
       <c r="AW19" s="30"/>
@@ -2749,7 +3860,7 @@
       <c r="BM19" s="30"/>
       <c r="BN19" s="30"/>
     </row>
-    <row r="20" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:66" ht="15" customHeight="1">
       <c r="A20" s="25">
         <v>13</v>
       </c>
@@ -2775,43 +3886,117 @@
       <c r="I20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="29"/>
-      <c r="AH20" s="29"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="30"/>
+      <c r="J20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS20" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT20" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU20" s="30"/>
       <c r="AV20" s="30"/>
       <c r="AW20" s="30"/>
@@ -2833,7 +4018,7 @@
       <c r="BM20" s="30"/>
       <c r="BN20" s="30"/>
     </row>
-    <row r="21" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:66" ht="15" customHeight="1">
       <c r="A21" s="25">
         <v>14</v>
       </c>
@@ -2859,43 +4044,117 @@
       <c r="I21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
+      <c r="J21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ21" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS21" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT21" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU21" s="30"/>
       <c r="AV21" s="30"/>
       <c r="AW21" s="30"/>
@@ -2917,7 +4176,7 @@
       <c r="BM21" s="30"/>
       <c r="BN21" s="30"/>
     </row>
-    <row r="22" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:66" ht="15" customHeight="1">
       <c r="A22" s="25">
         <v>15</v>
       </c>
@@ -2943,43 +4202,117 @@
       <c r="I22" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="29"/>
-      <c r="AH22" s="29"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
+      <c r="J22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO22" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS22" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT22" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU22" s="30"/>
       <c r="AV22" s="30"/>
       <c r="AW22" s="30"/>
@@ -3001,7 +4334,7 @@
       <c r="BM22" s="30"/>
       <c r="BN22" s="30"/>
     </row>
-    <row r="23" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:66" ht="15" customHeight="1">
       <c r="A23" s="25">
         <v>16</v>
       </c>
@@ -3027,43 +4360,117 @@
       <c r="I23" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="30"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="30"/>
-      <c r="AO23" s="30"/>
-      <c r="AP23" s="30"/>
-      <c r="AQ23" s="30"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="30"/>
-      <c r="AT23" s="30"/>
+      <c r="J23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT23" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU23" s="30"/>
       <c r="AV23" s="30"/>
       <c r="AW23" s="30"/>
@@ -3085,7 +4492,7 @@
       <c r="BM23" s="30"/>
       <c r="BN23" s="30"/>
     </row>
-    <row r="24" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:66" ht="15" customHeight="1">
       <c r="A24" s="25">
         <v>17</v>
       </c>
@@ -3111,43 +4518,117 @@
       <c r="I24" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
-      <c r="AG24" s="29"/>
-      <c r="AH24" s="29"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30"/>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
+      <c r="J24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM24" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS24" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT24" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU24" s="30"/>
       <c r="AV24" s="30"/>
       <c r="AW24" s="30"/>
@@ -3169,7 +4650,7 @@
       <c r="BM24" s="30"/>
       <c r="BN24" s="30"/>
     </row>
-    <row r="25" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:66" ht="15" customHeight="1">
       <c r="A25" s="25">
         <v>18</v>
       </c>
@@ -3195,43 +4676,117 @@
       <c r="I25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="29"/>
-      <c r="AL25" s="29"/>
-      <c r="AM25" s="29"/>
-      <c r="AN25" s="29"/>
-      <c r="AO25" s="29"/>
-      <c r="AP25" s="29"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="30"/>
-      <c r="AS25" s="30"/>
-      <c r="AT25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP25" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ25" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS25" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT25" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU25" s="30"/>
       <c r="AV25" s="30"/>
       <c r="AW25" s="30"/>
@@ -3253,7 +4808,7 @@
       <c r="BM25" s="30"/>
       <c r="BN25" s="30"/>
     </row>
-    <row r="26" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:66" ht="15" customHeight="1">
       <c r="A26" s="25">
         <v>19</v>
       </c>
@@ -3279,43 +4834,117 @@
       <c r="I26" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="30"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="30"/>
-      <c r="AO26" s="30"/>
-      <c r="AP26" s="30"/>
-      <c r="AQ26" s="30"/>
-      <c r="AR26" s="30"/>
-      <c r="AS26" s="30"/>
-      <c r="AT26" s="30"/>
+      <c r="J26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y26" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ26" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT26" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU26" s="30"/>
       <c r="AV26" s="30"/>
       <c r="AW26" s="30"/>
@@ -3337,7 +4966,7 @@
       <c r="BM26" s="30"/>
       <c r="BN26" s="30"/>
     </row>
-    <row r="27" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:66" ht="15" customHeight="1">
       <c r="A27" s="25">
         <v>20</v>
       </c>
@@ -3363,43 +4992,117 @@
       <c r="I27" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="30"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="30"/>
-      <c r="AK27" s="30"/>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="30"/>
-      <c r="AO27" s="30"/>
-      <c r="AP27" s="30"/>
-      <c r="AQ27" s="30"/>
-      <c r="AR27" s="30"/>
-      <c r="AS27" s="30"/>
-      <c r="AT27" s="30"/>
+      <c r="J27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT27" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU27" s="30"/>
       <c r="AV27" s="30"/>
       <c r="AW27" s="30"/>
@@ -3421,7 +5124,7 @@
       <c r="BM27" s="30"/>
       <c r="BN27" s="30"/>
     </row>
-    <row r="28" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:66" ht="15" customHeight="1">
       <c r="A28" s="25">
         <v>21</v>
       </c>
@@ -3447,43 +5150,117 @@
       <c r="I28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-      <c r="AS28" s="30"/>
-      <c r="AT28" s="30"/>
+      <c r="J28" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO28" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ28" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS28" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT28" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU28" s="30"/>
       <c r="AV28" s="30"/>
       <c r="AW28" s="30"/>
@@ -3505,7 +5282,7 @@
       <c r="BM28" s="30"/>
       <c r="BN28" s="30"/>
     </row>
-    <row r="29" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:66" ht="15" customHeight="1">
       <c r="A29" s="25">
         <v>22</v>
       </c>
@@ -3531,43 +5308,117 @@
       <c r="I29" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
-      <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="30"/>
-      <c r="AG29" s="30"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
-      <c r="AK29" s="30"/>
-      <c r="AL29" s="30"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="30"/>
-      <c r="AO29" s="30"/>
-      <c r="AP29" s="30"/>
-      <c r="AQ29" s="30"/>
-      <c r="AR29" s="30"/>
-      <c r="AS29" s="30"/>
-      <c r="AT29" s="30"/>
+      <c r="J29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ29" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT29" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU29" s="30"/>
       <c r="AV29" s="30"/>
       <c r="AW29" s="30"/>
@@ -3589,7 +5440,7 @@
       <c r="BM29" s="30"/>
       <c r="BN29" s="30"/>
     </row>
-    <row r="30" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:66" ht="15" customHeight="1">
       <c r="A30" s="25">
         <v>23</v>
       </c>
@@ -3615,43 +5466,117 @@
       <c r="I30" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="30"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="30"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="30"/>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="30"/>
-      <c r="AL30" s="30"/>
-      <c r="AM30" s="30"/>
-      <c r="AN30" s="30"/>
-      <c r="AO30" s="30"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="30"/>
-      <c r="AR30" s="30"/>
-      <c r="AS30" s="30"/>
-      <c r="AT30" s="30"/>
+      <c r="J30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH30" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN30" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO30" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ30" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS30" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT30" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU30" s="30"/>
       <c r="AV30" s="30"/>
       <c r="AW30" s="30"/>
@@ -3673,7 +5598,7 @@
       <c r="BM30" s="30"/>
       <c r="BN30" s="30"/>
     </row>
-    <row r="31" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:66" ht="15" customHeight="1">
       <c r="A31" s="25">
         <v>24</v>
       </c>
@@ -3699,43 +5624,117 @@
       <c r="I31" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="30"/>
-      <c r="AB31" s="30"/>
-      <c r="AC31" s="30"/>
-      <c r="AD31" s="30"/>
-      <c r="AE31" s="30"/>
-      <c r="AF31" s="30"/>
-      <c r="AG31" s="29"/>
-      <c r="AH31" s="29"/>
-      <c r="AI31" s="30"/>
-      <c r="AJ31" s="30"/>
-      <c r="AK31" s="30"/>
-      <c r="AL31" s="30"/>
-      <c r="AM31" s="30"/>
-      <c r="AN31" s="30"/>
-      <c r="AO31" s="30"/>
-      <c r="AP31" s="30"/>
-      <c r="AQ31" s="30"/>
-      <c r="AR31" s="30"/>
-      <c r="AS31" s="30"/>
-      <c r="AT31" s="30"/>
+      <c r="J31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="T31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH31" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ31" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT31" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU31" s="30"/>
       <c r="AV31" s="30"/>
       <c r="AW31" s="30"/>
@@ -3757,7 +5756,7 @@
       <c r="BM31" s="30"/>
       <c r="BN31" s="30"/>
     </row>
-    <row r="32" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" ht="15" customHeight="1">
       <c r="A32" s="25">
         <v>25</v>
       </c>
@@ -3783,43 +5782,117 @@
       <c r="I32" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
-      <c r="AH32" s="30"/>
-      <c r="AI32" s="30"/>
-      <c r="AJ32" s="30"/>
-      <c r="AK32" s="30"/>
-      <c r="AL32" s="30"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="30"/>
-      <c r="AO32" s="30"/>
-      <c r="AP32" s="30"/>
-      <c r="AQ32" s="30"/>
-      <c r="AR32" s="30"/>
-      <c r="AS32" s="30"/>
-      <c r="AT32" s="30"/>
+      <c r="J32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y32" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA32" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS32" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT32" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU32" s="30"/>
       <c r="AV32" s="30"/>
       <c r="AW32" s="30"/>
@@ -3841,7 +5914,7 @@
       <c r="BM32" s="30"/>
       <c r="BN32" s="30"/>
     </row>
-    <row r="33" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" ht="15" customHeight="1">
       <c r="A33" s="25">
         <v>26</v>
       </c>
@@ -3867,43 +5940,117 @@
       <c r="I33" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="30"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-      <c r="AJ33" s="30"/>
-      <c r="AK33" s="30"/>
-      <c r="AL33" s="30"/>
-      <c r="AM33" s="30"/>
-      <c r="AN33" s="30"/>
-      <c r="AO33" s="30"/>
-      <c r="AP33" s="30"/>
-      <c r="AQ33" s="30"/>
-      <c r="AR33" s="30"/>
-      <c r="AS33" s="30"/>
-      <c r="AT33" s="30"/>
+      <c r="J33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN33" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO33" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS33" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT33" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU33" s="30"/>
       <c r="AV33" s="30"/>
       <c r="AW33" s="30"/>
@@ -3925,7 +6072,7 @@
       <c r="BM33" s="30"/>
       <c r="BN33" s="30"/>
     </row>
-    <row r="34" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" ht="15" customHeight="1">
       <c r="A34" s="25">
         <v>27</v>
       </c>
@@ -3951,43 +6098,117 @@
       <c r="I34" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="30"/>
-      <c r="AM34" s="30"/>
-      <c r="AN34" s="30"/>
-      <c r="AO34" s="30"/>
-      <c r="AP34" s="30"/>
-      <c r="AQ34" s="30"/>
-      <c r="AR34" s="30"/>
-      <c r="AS34" s="30"/>
-      <c r="AT34" s="30"/>
+      <c r="J34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q34" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X34" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ34" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS34" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT34" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU34" s="30"/>
       <c r="AV34" s="30"/>
       <c r="AW34" s="30"/>
@@ -4009,7 +6230,7 @@
       <c r="BM34" s="30"/>
       <c r="BN34" s="30"/>
     </row>
-    <row r="35" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" ht="15" customHeight="1">
       <c r="A35" s="25">
         <v>28</v>
       </c>
@@ -4035,43 +6256,117 @@
       <c r="I35" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="30"/>
-      <c r="AB35" s="30"/>
-      <c r="AC35" s="30"/>
-      <c r="AD35" s="30"/>
-      <c r="AE35" s="30"/>
-      <c r="AF35" s="30"/>
-      <c r="AG35" s="30"/>
-      <c r="AH35" s="30"/>
-      <c r="AI35" s="30"/>
-      <c r="AJ35" s="30"/>
-      <c r="AK35" s="30"/>
-      <c r="AL35" s="30"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="30"/>
-      <c r="AO35" s="30"/>
-      <c r="AP35" s="30"/>
-      <c r="AQ35" s="30"/>
-      <c r="AR35" s="30"/>
-      <c r="AS35" s="30"/>
-      <c r="AT35" s="30"/>
+      <c r="J35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO35" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR35" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT35" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU35" s="30"/>
       <c r="AV35" s="30"/>
       <c r="AW35" s="30"/>
@@ -4093,7 +6388,7 @@
       <c r="BM35" s="30"/>
       <c r="BN35" s="30"/>
     </row>
-    <row r="36" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" ht="15" customHeight="1">
       <c r="A36" s="25">
         <v>29</v>
       </c>
@@ -4119,43 +6414,117 @@
       <c r="I36" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AD36" s="30"/>
-      <c r="AE36" s="30"/>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
-      <c r="AH36" s="30"/>
-      <c r="AI36" s="30"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30"/>
+      <c r="J36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ36" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS36" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT36" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU36" s="30"/>
       <c r="AV36" s="30"/>
       <c r="AW36" s="30"/>
@@ -4177,7 +6546,7 @@
       <c r="BM36" s="30"/>
       <c r="BN36" s="30"/>
     </row>
-    <row r="37" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" ht="15" customHeight="1">
       <c r="A37" s="25">
         <v>30</v>
       </c>
@@ -4203,43 +6572,117 @@
       <c r="I37" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="30"/>
-      <c r="AH37" s="30"/>
-      <c r="AI37" s="30"/>
-      <c r="AJ37" s="30"/>
-      <c r="AK37" s="30"/>
-      <c r="AL37" s="30"/>
-      <c r="AM37" s="30"/>
-      <c r="AN37" s="30"/>
-      <c r="AO37" s="30"/>
-      <c r="AP37" s="30"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="29"/>
-      <c r="AS37" s="29"/>
-      <c r="AT37" s="30"/>
+      <c r="J37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="W37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP37" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS37" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT37" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU37" s="30"/>
       <c r="AV37" s="30"/>
       <c r="AW37" s="30"/>
@@ -4261,7 +6704,7 @@
       <c r="BM37" s="30"/>
       <c r="BN37" s="30"/>
     </row>
-    <row r="38" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" ht="15" customHeight="1">
       <c r="A38" s="25">
         <v>31</v>
       </c>
@@ -4287,43 +6730,117 @@
       <c r="I38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="30"/>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="30"/>
-      <c r="AM38" s="30"/>
-      <c r="AN38" s="30"/>
-      <c r="AO38" s="30"/>
-      <c r="AP38" s="30"/>
-      <c r="AQ38" s="30"/>
-      <c r="AR38" s="30"/>
-      <c r="AS38" s="30"/>
-      <c r="AT38" s="30"/>
+      <c r="J38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO38" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR38" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS38" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT38" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU38" s="30"/>
       <c r="AV38" s="30"/>
       <c r="AW38" s="30"/>
@@ -4345,7 +6862,7 @@
       <c r="BM38" s="30"/>
       <c r="BN38" s="30"/>
     </row>
-    <row r="39" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" ht="15" customHeight="1">
       <c r="A39" s="25">
         <v>32</v>
       </c>
@@ -4371,43 +6888,117 @@
       <c r="I39" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="30"/>
-      <c r="AJ39" s="30"/>
-      <c r="AK39" s="30"/>
-      <c r="AL39" s="30"/>
-      <c r="AM39" s="30"/>
-      <c r="AN39" s="30"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="30"/>
-      <c r="AQ39" s="30"/>
-      <c r="AR39" s="30"/>
-      <c r="AS39" s="30"/>
-      <c r="AT39" s="30"/>
+      <c r="J39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR39" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS39" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT39" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU39" s="30"/>
       <c r="AV39" s="30"/>
       <c r="AW39" s="30"/>
@@ -4429,7 +7020,7 @@
       <c r="BM39" s="30"/>
       <c r="BN39" s="30"/>
     </row>
-    <row r="40" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" ht="15" customHeight="1">
       <c r="A40" s="25">
         <v>33</v>
       </c>
@@ -4455,43 +7046,117 @@
       <c r="I40" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="30"/>
-      <c r="AJ40" s="30"/>
-      <c r="AK40" s="30"/>
-      <c r="AL40" s="30"/>
-      <c r="AM40" s="30"/>
-      <c r="AN40" s="30"/>
-      <c r="AO40" s="30"/>
-      <c r="AP40" s="30"/>
-      <c r="AQ40" s="30"/>
-      <c r="AR40" s="30"/>
-      <c r="AS40" s="30"/>
-      <c r="AT40" s="30"/>
+      <c r="J40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="P40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="R40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="S40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="V40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT40" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU40" s="30"/>
       <c r="AV40" s="30"/>
       <c r="AW40" s="30"/>
@@ -4513,7 +7178,7 @@
       <c r="BM40" s="30"/>
       <c r="BN40" s="30"/>
     </row>
-    <row r="41" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" ht="15" customHeight="1">
       <c r="A41" s="25">
         <v>34</v>
       </c>
@@ -4539,43 +7204,117 @@
       <c r="I41" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="30"/>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AD41" s="30"/>
-      <c r="AE41" s="30"/>
-      <c r="AF41" s="30"/>
-      <c r="AG41" s="30"/>
-      <c r="AH41" s="30"/>
-      <c r="AI41" s="30"/>
-      <c r="AJ41" s="30"/>
-      <c r="AK41" s="30"/>
-      <c r="AL41" s="30"/>
-      <c r="AM41" s="30"/>
-      <c r="AN41" s="30"/>
-      <c r="AO41" s="30"/>
-      <c r="AP41" s="30"/>
-      <c r="AQ41" s="30"/>
-      <c r="AR41" s="30"/>
-      <c r="AS41" s="30"/>
-      <c r="AT41" s="30"/>
+      <c r="J41" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ41" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS41" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT41" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="AU41" s="30"/>
       <c r="AV41" s="30"/>
       <c r="AW41" s="30"/>
@@ -4597,7 +7336,7 @@
       <c r="BM41" s="30"/>
       <c r="BN41" s="30"/>
     </row>
-    <row r="42" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" ht="15" customHeight="1">
       <c r="A42" s="25">
         <v>35</v>
       </c>
@@ -4623,43 +7362,117 @@
       <c r="I42" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="30"/>
-      <c r="AH42" s="30"/>
-      <c r="AI42" s="30"/>
-      <c r="AJ42" s="30"/>
-      <c r="AK42" s="30"/>
-      <c r="AL42" s="30"/>
-      <c r="AM42" s="30"/>
-      <c r="AN42" s="30"/>
-      <c r="AO42" s="30"/>
-      <c r="AP42" s="30"/>
-      <c r="AQ42" s="30"/>
-      <c r="AR42" s="30"/>
-      <c r="AS42" s="30"/>
-      <c r="AT42" s="30"/>
+      <c r="J42" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO42" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ42" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS42" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT42" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU42" s="30"/>
       <c r="AV42" s="30"/>
       <c r="AW42" s="30"/>
@@ -4681,7 +7494,7 @@
       <c r="BM42" s="30"/>
       <c r="BN42" s="30"/>
     </row>
-    <row r="43" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" ht="15" customHeight="1">
       <c r="A43" s="25">
         <v>36</v>
       </c>
@@ -4707,43 +7520,117 @@
       <c r="I43" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
-      <c r="AG43" s="30"/>
-      <c r="AH43" s="30"/>
-      <c r="AI43" s="30"/>
-      <c r="AJ43" s="30"/>
-      <c r="AK43" s="30"/>
-      <c r="AL43" s="30"/>
-      <c r="AM43" s="30"/>
-      <c r="AN43" s="30"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="30"/>
-      <c r="AQ43" s="30"/>
-      <c r="AR43" s="30"/>
-      <c r="AS43" s="30"/>
-      <c r="AT43" s="30"/>
+      <c r="J43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="X43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ43" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS43" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT43" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU43" s="30"/>
       <c r="AV43" s="30"/>
       <c r="AW43" s="30"/>
@@ -4765,7 +7652,7 @@
       <c r="BM43" s="30"/>
       <c r="BN43" s="30"/>
     </row>
-    <row r="44" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" ht="15" customHeight="1">
       <c r="A44" s="25">
         <v>37</v>
       </c>
@@ -4791,43 +7678,117 @@
       <c r="I44" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
-      <c r="AG44" s="30"/>
-      <c r="AH44" s="30"/>
-      <c r="AI44" s="30"/>
-      <c r="AJ44" s="30"/>
-      <c r="AK44" s="30"/>
-      <c r="AL44" s="30"/>
-      <c r="AM44" s="30"/>
-      <c r="AN44" s="30"/>
-      <c r="AO44" s="30"/>
-      <c r="AP44" s="30"/>
-      <c r="AQ44" s="30"/>
-      <c r="AR44" s="30"/>
-      <c r="AS44" s="30"/>
-      <c r="AT44" s="30"/>
+      <c r="J44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V44" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS44" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT44" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU44" s="30"/>
       <c r="AV44" s="30"/>
       <c r="AW44" s="30"/>
@@ -4849,7 +7810,7 @@
       <c r="BM44" s="30"/>
       <c r="BN44" s="30"/>
     </row>
-    <row r="45" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" ht="15" customHeight="1">
       <c r="A45" s="25">
         <v>38</v>
       </c>
@@ -4875,43 +7836,117 @@
       <c r="I45" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="30"/>
-      <c r="AH45" s="30"/>
-      <c r="AI45" s="30"/>
-      <c r="AJ45" s="30"/>
-      <c r="AK45" s="30"/>
-      <c r="AL45" s="30"/>
-      <c r="AM45" s="30"/>
-      <c r="AN45" s="30"/>
-      <c r="AO45" s="30"/>
-      <c r="AP45" s="30"/>
-      <c r="AQ45" s="30"/>
-      <c r="AR45" s="30"/>
-      <c r="AS45" s="30"/>
-      <c r="AT45" s="30"/>
+      <c r="J45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S45" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS45" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT45" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU45" s="30"/>
       <c r="AV45" s="30"/>
       <c r="AW45" s="30"/>
@@ -4933,7 +7968,7 @@
       <c r="BM45" s="30"/>
       <c r="BN45" s="30"/>
     </row>
-    <row r="46" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" ht="15" customHeight="1">
       <c r="A46" s="25">
         <v>39</v>
       </c>
@@ -4959,43 +7994,117 @@
       <c r="I46" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="30"/>
-      <c r="AJ46" s="30"/>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="30"/>
-      <c r="AM46" s="30"/>
-      <c r="AN46" s="30"/>
-      <c r="AO46" s="30"/>
-      <c r="AP46" s="30"/>
-      <c r="AQ46" s="30"/>
-      <c r="AR46" s="30"/>
-      <c r="AS46" s="30"/>
-      <c r="AT46" s="30"/>
+      <c r="J46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="O46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="R46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="S46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="T46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="U46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="W46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="X46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG46" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH46" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN46" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO46" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS46" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT46" s="30" t="s">
+        <v>6</v>
+      </c>
       <c r="AU46" s="30"/>
       <c r="AV46" s="30"/>
       <c r="AW46" s="30"/>
@@ -5017,11 +8126,11 @@
       <c r="BM46" s="30"/>
       <c r="BN46" s="30"/>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
+    <row r="47" spans="1:66">
+      <c r="B47" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="40"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="12"/>
       <c r="E47" s="11">
         <f t="shared" ref="E47:AS47" si="0">COUNTIF(E8:E46,"A")</f>
@@ -5045,147 +8154,147 @@
       </c>
       <c r="J47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T47" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U47" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W47" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X47" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y47" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH47" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AM47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AP47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AQ47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AR47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS47" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AT47" s="24">
         <f>COUNTIF(AU8:AU46,"A")</f>
@@ -5272,11 +8381,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="B48" s="36" t="s">
+    <row r="48" spans="1:66">
+      <c r="B48" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="12"/>
       <c r="E48" s="11">
         <f>(39-E47)</f>
@@ -5300,147 +8409,147 @@
       </c>
       <c r="J48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="M48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="U48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="W48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="X48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="Y48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Z48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="AA48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="AB48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AC48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AD48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AE48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AF48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AG48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="AH48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AI48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AJ48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AK48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AL48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="AM48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="AN48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AO48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AP48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AQ48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AR48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AS48" s="25">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AT48" s="25">
         <f t="shared" si="2"/>
@@ -5528,27 +8637,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
+  <mergeCells count="21">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E4:K4"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="E4:X4"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="O2:X2"/>
     <mergeCell ref="O3:X3"/>
     <mergeCell ref="O1:X1"/>
-    <mergeCell ref="Y4:AT4"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="L4:Y4"/>
+    <mergeCell ref="Z4:AT4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="E8:BN46">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
@@ -5564,17 +8674,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="71" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="38" customWidth="1"/>
     <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" style="2" customWidth="1"/>
@@ -5584,111 +8694,111 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
+      <c r="A4" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
+      <c r="A6" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62" t="s">
+      <c r="C6" s="65"/>
+      <c r="D6" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="65">
+      <c r="E6" s="66">
         <v>43496</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="66"/>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="31" t="s">
         <v>118</v>
       </c>
@@ -5698,14 +8808,14 @@
       <c r="F8" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="39" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="66"/>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="31">
         <v>25</v>
       </c>
@@ -5715,10 +8825,10 @@
       <c r="F9" s="31">
         <v>100</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67">
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10" s="36">
         <v>1</v>
       </c>
       <c r="B10" s="27" t="s">
@@ -5742,8 +8852,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67">
+    <row r="11" spans="1:7" ht="15" customHeight="1">
+      <c r="A11" s="36">
         <v>2</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -5767,8 +8877,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67">
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="36">
         <v>3</v>
       </c>
       <c r="B12" s="27" t="s">
@@ -5792,8 +8902,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67">
+    <row r="13" spans="1:7" ht="15" customHeight="1">
+      <c r="A13" s="36">
         <v>4</v>
       </c>
       <c r="B13" s="27" t="s">
@@ -5817,8 +8927,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67">
+    <row r="14" spans="1:7" ht="15" customHeight="1">
+      <c r="A14" s="36">
         <v>5</v>
       </c>
       <c r="B14" s="27" t="s">
@@ -5842,8 +8952,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
+      <c r="A15" s="36">
         <v>6</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -5867,8 +8977,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67">
+    <row r="16" spans="1:7" ht="15" customHeight="1">
+      <c r="A16" s="36">
         <v>7</v>
       </c>
       <c r="B16" s="27" t="s">
@@ -5892,8 +9002,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="67">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
+      <c r="A17" s="36">
         <v>8</v>
       </c>
       <c r="B17" s="27" t="s">
@@ -5917,8 +9027,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="36">
         <v>9</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -5942,8 +9052,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
+      <c r="A19" s="36">
         <v>10</v>
       </c>
       <c r="B19" s="27" t="s">
@@ -5967,8 +9077,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="67">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
+      <c r="A20" s="36">
         <v>11</v>
       </c>
       <c r="B20" s="27" t="s">
@@ -5992,8 +9102,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="67">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
+      <c r="A21" s="36">
         <v>12</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -6017,8 +9127,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="67">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="A22" s="36">
         <v>13</v>
       </c>
       <c r="B22" s="27" t="s">
@@ -6042,8 +9152,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
+      <c r="A23" s="36">
         <v>14</v>
       </c>
       <c r="B23" s="27" t="s">
@@ -6067,8 +9177,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
+      <c r="A24" s="36">
         <v>15</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -6092,8 +9202,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
+      <c r="A25" s="36">
         <v>16</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -6117,8 +9227,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
+      <c r="A26" s="36">
         <v>17</v>
       </c>
       <c r="B26" s="27" t="s">
@@ -6142,8 +9252,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="67">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
+      <c r="A27" s="36">
         <v>18</v>
       </c>
       <c r="B27" s="27" t="s">
@@ -6167,8 +9277,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
+      <c r="A28" s="36">
         <v>19</v>
       </c>
       <c r="B28" s="27" t="s">
@@ -6192,8 +9302,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67">
+    <row r="29" spans="1:7" ht="15" customHeight="1">
+      <c r="A29" s="36">
         <v>20</v>
       </c>
       <c r="B29" s="27" t="s">
@@ -6217,8 +9327,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
+      <c r="A30" s="36">
         <v>21</v>
       </c>
       <c r="B30" s="27" t="s">
@@ -6242,8 +9352,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
+      <c r="A31" s="36">
         <v>22</v>
       </c>
       <c r="B31" s="27" t="s">
@@ -6267,8 +9377,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
+      <c r="A32" s="36">
         <v>23</v>
       </c>
       <c r="B32" s="27" t="s">
@@ -6292,8 +9402,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
+      <c r="A33" s="36">
         <v>24</v>
       </c>
       <c r="B33" s="27" t="s">
@@ -6317,8 +9427,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67">
+    <row r="34" spans="1:7" ht="15" customHeight="1">
+      <c r="A34" s="36">
         <v>25</v>
       </c>
       <c r="B34" s="27" t="s">
@@ -6342,8 +9452,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67">
+    <row r="35" spans="1:7" ht="15" customHeight="1">
+      <c r="A35" s="36">
         <v>26</v>
       </c>
       <c r="B35" s="27" t="s">
@@ -6367,8 +9477,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67">
+    <row r="36" spans="1:7" ht="15" customHeight="1">
+      <c r="A36" s="36">
         <v>27</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -6392,8 +9502,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67">
+    <row r="37" spans="1:7" ht="15" customHeight="1">
+      <c r="A37" s="36">
         <v>28</v>
       </c>
       <c r="B37" s="27" t="s">
@@ -6417,8 +9527,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="67">
+    <row r="38" spans="1:7" ht="15" customHeight="1">
+      <c r="A38" s="36">
         <v>29</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -6442,8 +9552,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67">
+    <row r="39" spans="1:7" ht="15" customHeight="1">
+      <c r="A39" s="36">
         <v>30</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -6467,8 +9577,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="67">
+    <row r="40" spans="1:7" ht="15" customHeight="1">
+      <c r="A40" s="36">
         <v>31</v>
       </c>
       <c r="B40" s="27" t="s">
@@ -6492,8 +9602,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="67">
+    <row r="41" spans="1:7" ht="15" customHeight="1">
+      <c r="A41" s="36">
         <v>32</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -6517,8 +9627,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="67">
+    <row r="42" spans="1:7" ht="15" customHeight="1">
+      <c r="A42" s="36">
         <v>33</v>
       </c>
       <c r="B42" s="27" t="s">
@@ -6542,8 +9652,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="67">
+    <row r="43" spans="1:7" ht="15" customHeight="1">
+      <c r="A43" s="36">
         <v>34</v>
       </c>
       <c r="B43" s="27" t="s">
@@ -6567,8 +9677,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="67">
+    <row r="44" spans="1:7" ht="15" customHeight="1">
+      <c r="A44" s="36">
         <v>35</v>
       </c>
       <c r="B44" s="27" t="s">
@@ -6592,8 +9702,8 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67">
+    <row r="45" spans="1:7" ht="15" customHeight="1">
+      <c r="A45" s="36">
         <v>36</v>
       </c>
       <c r="B45" s="27" t="s">
@@ -6617,8 +9727,8 @@
         <v>FAIL</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="67">
+    <row r="46" spans="1:7">
+      <c r="A46" s="36">
         <v>37</v>
       </c>
       <c r="B46" s="27" t="s">
@@ -6642,12 +9752,12 @@
         <v>PASS</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="12"/>
-      <c r="B47" s="68" t="s">
+      <c r="B47" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="68"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="32">
         <f>COUNTIF(D10:D46,"&gt;12.4")</f>
         <v>24</v>
@@ -6665,12 +9775,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="12"/>
-      <c r="B48" s="68" t="s">
+      <c r="B48" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="68"/>
+      <c r="C48" s="63"/>
       <c r="D48" s="32">
         <f>COUNTIF(D10:D46,"&lt;12.5")</f>
         <v>10</v>
@@ -6688,12 +9798,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="12"/>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="37"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="32">
         <f>COUNTIF(D10:D46,"AB")</f>
         <v>3</v>
@@ -6711,12 +9821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="12"/>
-      <c r="B50" s="68" t="s">
+      <c r="B50" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="68"/>
+      <c r="C50" s="63"/>
       <c r="D50" s="15">
         <f>(D47)/(37-D49)*100</f>
         <v>70.588235294117652</v>
@@ -6734,27 +9844,29 @@
         <v>72.972972972972968</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="69" t="s">
+    <row r="53" spans="1:7">
+      <c r="B53" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70" t="s">
+      <c r="C53" s="37"/>
+      <c r="D53" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70" t="s">
+      <c r="E53" s="64"/>
+      <c r="F53" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="70"/>
+      <c r="G53" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:G6"/>
@@ -6763,13 +9875,11 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D53:E53"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D46">
     <cfRule type="cellIs" dxfId="4" priority="9" operator="lessThan">
